--- a/reddit_corpus.xlsx
+++ b/reddit_corpus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_131D11B7D3B05D6217583C11595ED87656CC2EBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114CC35E-2D83-49A0-A4FB-74CD09EAE19F}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_131D11B7D3B05D6217583C11595ED87656CC2EBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91AF4110-B921-4630-83D3-03DF2CEDD78A}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,7 +1250,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1260,12 +1260,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,7 +1297,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1319,6 +1313,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1608,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1642,123 +1640,123 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1535866291</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1535866449</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1535866762</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>1535867035</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>1535935406</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>1535941317</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3542,43 +3540,43 @@
         <v>384</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>1537512019</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <v>1537512059</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="2" t="s">
         <v>384</v>
       </c>
     </row>
